--- a/data/financial_statements/sofp/GD.xlsx
+++ b/data/financial_statements/sofp/GD.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1560 +584,1596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1242000000</v>
+      </c>
+      <c r="C2">
         <v>2496000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2223000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2907000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1603000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3139000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2950000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1811000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2824000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1469000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2300000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5330000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>902000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>974000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>702000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>673000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>963000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1010000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1862000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4332000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2983000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2722000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1856000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2168000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2334000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2303000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1899000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1907000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2785000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3372000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4032000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4412000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>4388000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5105000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3841000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4296000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>5301000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>4065000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3757000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3745000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>11803000000</v>
+      </c>
+      <c r="C3">
         <v>10905000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>11032000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10903000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11539000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11380000000</v>
-      </c>
-      <c r="G3">
-        <v>11178000000</v>
       </c>
       <c r="H3">
         <v>11178000000</v>
       </c>
       <c r="I3">
+        <v>11178000000</v>
+      </c>
+      <c r="J3">
         <v>11185000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12006000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11230000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11485000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>11401000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>11566000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>11227000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>11085000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>10335000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>11300000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>10999000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>9634000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>8857000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>9000000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>8735000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>8040000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>7611000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>8715000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>8535000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>8359000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>7803000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>8011000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>7868000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>8105000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>8641000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>8617000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>9408000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>9175000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>9150000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>9478000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>9399000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>9334000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>6322000000</v>
+      </c>
+      <c r="C4">
         <v>6257000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6158000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5548000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5340000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5651000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5803000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5688000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5745000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6402000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6666000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6852000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>6306000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6573000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6480000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6185000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5977000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6247000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>5890000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5543000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>5303000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>5781000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5839000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5822000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5118000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3657000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3520000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3504000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3366000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3239000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3359000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3397000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3221000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>3139000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3158000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2977000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2890000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2986000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2935000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2863000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1696000000</v>
+      </c>
+      <c r="C5">
         <v>1347000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1166000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1436000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1505000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1516000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1649000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1731000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1789000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>988000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>939000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1074000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1679000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1038000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1148000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>924000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>914000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1401000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1076000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>955000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1185000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>577000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>696000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>584000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1471000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>622000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>432000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>418000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>617000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>666000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>514000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>438000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1157000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1308000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>776000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>516000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>821000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>589000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>447000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>408000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>21063000000</v>
+      </c>
+      <c r="C6">
         <v>21005000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20579000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20794000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>19987000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>21686000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>21580000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20408000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>21543000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>20865000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>21135000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>24741000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>20288000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20151000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>19557000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>18867000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>18189000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>19958000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>19827000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>20464000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>18328000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>18080000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>17126000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>16614000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>16534000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>15297000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>14386000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>14188000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>14571000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>15288000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>15773000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>16352000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>17407000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>18169000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>17183000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>16964000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>18162000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>17118000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>16538000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>16350000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>5900000000</v>
+      </c>
+      <c r="C7">
         <v>5565000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5479000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5450000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5417000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5195000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5135000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5090000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5100000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4863000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4721000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4537000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>4475000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>4217000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4091000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>4054000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3978000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>4244000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>4179000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>3533000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>3517000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>3461000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>3424000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3412000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3477000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>3445000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>3440000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>3477000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3466000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>3370000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>3329000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>3323000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3329000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>3322000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3327000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>3408000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>3359000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>3365000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>3351000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>3374000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>22158000000</v>
+      </c>
+      <c r="C8">
         <v>22076000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>21869000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>22040000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>22076000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>22114000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>22024000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22015000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22170000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>22051000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>21915000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>21912000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>21992000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>21993000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>22119000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>22186000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>22179000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>22153000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>22476000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>12657000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>12616000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>12633000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>12364000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>12211000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>12123000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>12296000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>12305000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>12354000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>12206000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>12333000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>12485000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>12592000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>12643000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>12685000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>12910000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>13130000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>12976000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>13256000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>13179000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>13244000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>2464000000</v>
+      </c>
+      <c r="C9">
         <v>2470000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2554000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2592000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2593000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2375000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2444000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2450000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2495000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2479000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2451000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2520000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2594000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2427000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2307000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2359000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1062000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>608000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>670000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>565000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>585000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>740000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>879000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>974000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1038000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1630000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1638000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1683000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1754000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1989000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2067000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2118000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1958000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1135000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>912000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>880000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>997000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1732000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1663000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1641000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>30522000000</v>
+      </c>
+      <c r="C10">
         <v>30111000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>29902000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>30082000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30086000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>29684000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>29603000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>29555000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>29765000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>29393000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>29087000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>28969000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>29061000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>28637000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>28517000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>28599000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>27219000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>27005000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>27325000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>16755000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>16718000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>16834000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>16667000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>16597000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>16638000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>17371000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>17383000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>17514000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>17426000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>17692000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>17881000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>18033000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>17930000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>17142000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>17149000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>17418000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>17332000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>18353000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>18193000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>18259000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>51585000000</v>
+      </c>
+      <c r="C11">
         <v>51116000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>50481000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>50876000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>50073000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>51370000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>51183000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>49963000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>51308000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>50258000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>50222000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>53710000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>49349000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>48788000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>48074000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>47466000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>45408000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>46963000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>47152000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>37219000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>35046000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>34914000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>33793000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>33211000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>33172000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>32668000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>31769000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>31702000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>31997000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>32980000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>33654000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>34385000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>35337000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>35311000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>34332000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>34382000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>35494000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>35471000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>34731000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>34609000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>3398000000</v>
+      </c>
+      <c r="C12">
         <v>3106000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3138000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3190000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3167000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2682000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2595000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2736000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2952000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2613000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2383000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2788000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3162000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2999000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2860000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3008000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3179000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3033000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3032000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2851000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3207000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2718000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2620000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>2466000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2538000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2276000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2128000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2150000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1964000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2387000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2275000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2266000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2057000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2390000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2486000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2215000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2216000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2443000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>2444000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2503000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1253000000</v>
+      </c>
+      <c r="C13">
         <v>2252000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1754000000</v>
-      </c>
-      <c r="D13">
-        <v>1005000000</v>
       </c>
       <c r="E13">
         <v>1005000000</v>
       </c>
       <c r="F13">
+        <v>1005000000</v>
+      </c>
+      <c r="G13">
         <v>2183000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2821000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3186000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3003000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3394000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4121000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>5047000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2920000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>4661000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>4960000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2097000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>973000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1678000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2881000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>2498000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>903000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>989000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>901000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>900000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>537000000</v>
-      </c>
-      <c r="AB13">
-        <v>501000000</v>
       </c>
       <c r="AC13">
         <v>501000000</v>
@@ -2032,13 +2182,13 @@
         <v>501000000</v>
       </c>
       <c r="AE13">
+        <v>501000000</v>
+      </c>
+      <c r="AF13">
         <v>2000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1000000</v>
-      </c>
-      <c r="AG13">
-        <v>501000000</v>
       </c>
       <c r="AH13">
         <v>501000000</v>
@@ -2047,907 +2197,931 @@
         <v>501000000</v>
       </c>
       <c r="AJ13">
+        <v>501000000</v>
+      </c>
+      <c r="AK13">
         <v>502000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>3254000000</v>
+      </c>
+      <c r="C14">
         <v>3640000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3313000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3478000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3540000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3572000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3609000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3537000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3733000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4027000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3890000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3780000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3571000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3713000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3480000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3582000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3317000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3651000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3441000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2798000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2898000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2978000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3072000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>3112000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3185000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>4367000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>4105000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>4212000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>4306000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>4419000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>4327000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>4358000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3858000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3789000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3541000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>3404000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3458000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3356000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3284000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3308000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>15341000000</v>
+      </c>
+      <c r="C15">
         <v>15659000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>14736000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>14036000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>13978000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14604000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>14981000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>15153000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15964000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>16120000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>16606000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>18440000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>16801000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>18227000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>18014000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>15382000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>14739000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>15689000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>16573000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>15242000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>13099000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>13209000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>13503000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>13165000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>13450000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>11893000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>12135000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>12423000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>12445000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>13178000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>12708000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>13112000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>13751000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>14670000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>13222000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>12623000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>12259000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>12065000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>11841000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>11769000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>9243000000</v>
+      </c>
+      <c r="C16">
         <v>9239000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>9741000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10491000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10490000000</v>
-      </c>
-      <c r="F16">
-        <v>11485000000</v>
       </c>
       <c r="G16">
         <v>11485000000</v>
       </c>
       <c r="H16">
-        <v>9995000000</v>
+        <v>11485000000</v>
       </c>
       <c r="I16">
         <v>9995000000</v>
       </c>
       <c r="J16">
+        <v>9995000000</v>
+      </c>
+      <c r="K16">
         <v>9978000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>10470000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>12951000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9010000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>8989000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>8975000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>11451000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>11444000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>11403000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>11397000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>3981000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3980000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>3979000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2989000000</v>
-      </c>
-      <c r="X16">
-        <v>2988000000</v>
       </c>
       <c r="Y16">
         <v>2988000000</v>
       </c>
       <c r="Z16">
+        <v>2988000000</v>
+      </c>
+      <c r="AA16">
         <v>3885000000</v>
-      </c>
-      <c r="AA16">
-        <v>2899000000</v>
       </c>
       <c r="AB16">
         <v>2899000000</v>
       </c>
       <c r="AC16">
+        <v>2899000000</v>
+      </c>
+      <c r="AD16">
         <v>2898000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2912000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3411000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3410000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>3392000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>3410000000</v>
-      </c>
-      <c r="AI16">
-        <v>3409000000</v>
       </c>
       <c r="AJ16">
         <v>3409000000</v>
       </c>
       <c r="AK16">
-        <v>3908000000</v>
+        <v>3409000000</v>
       </c>
       <c r="AL16">
         <v>3908000000</v>
       </c>
       <c r="AM16">
+        <v>3908000000</v>
+      </c>
+      <c r="AN16">
         <v>3907000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3909000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>655000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>582000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>716000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>827000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>439000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>445000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>424000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>462000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>446000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>435000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>645000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>8433000000</v>
+      </c>
+      <c r="C18">
         <v>8567000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>8623000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>8335000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7964000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9560000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9396000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>9475000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9688000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>9444000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>9256000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>9119000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>9560000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>8059000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>8208000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>8399000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>7493000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7116000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>7188000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>6222000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>6532000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>6162000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>6349000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>6475000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>6433000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>5573000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>5740000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>5798000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>5916000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>6156000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>6259000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>6343000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>6365000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>4221000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>4582000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>4660000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>4826000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>6893000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>7227000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>7349000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>17676000000</v>
+      </c>
+      <c r="C19">
         <v>17806000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>18364000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>18826000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18454000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>21045000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20881000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>19470000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>19683000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>19422000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>19726000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>22070000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>18570000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>17048000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>17183000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>19850000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>18937000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>18519000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>18585000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>10203000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>10512000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>10141000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>9338000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>9463000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>9421000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>9458000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>8639000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>8697000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>8814000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>9068000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>9670000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>9753000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>9757000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>7631000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>7991000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>8069000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>8734000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>10801000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>11134000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>11258000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>33017000000</v>
+      </c>
+      <c r="C20">
         <v>33465000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>33100000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>32862000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>32432000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>35649000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>35862000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>34623000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>35647000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>35542000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>36332000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>40510000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>35371000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>35275000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>35197000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>35232000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>33676000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>34208000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>35158000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>25445000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>23611000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>23350000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>22841000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>22628000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>22871000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>21351000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>20774000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>21120000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>21259000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>22246000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>22378000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>22865000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>23508000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>22301000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>21213000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>20692000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>20993000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>22866000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>22975000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>23027000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>3556000000</v>
+      </c>
+      <c r="C21">
         <v>3511000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3466000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3434000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>3278000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3236000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3194000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3152000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3124000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3082000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3050000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>3015000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3039000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2999000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2959000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2937000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>2946000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2914000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>2865000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>2820000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2872000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>2841000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>2796000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>2762000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>2819000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>2789000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>2756000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>2740000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2730000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>2697000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>2657000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>2588000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>2548000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>2467000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2415000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>2325000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>2226000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2161000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2043000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1961000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>482000000</v>
@@ -3066,1102 +3240,1132 @@
       <c r="AN22">
         <v>482000000</v>
       </c>
+      <c r="AO22">
+        <v>482000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>37403000000</v>
+      </c>
+      <c r="C23">
         <v>36774000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>36218000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>35800000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>35420000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>34800000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>34273000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>33869000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>33498000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>32812000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>32294000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>31983000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>31633000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>30909000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>30291000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>29781000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>29326000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>28691000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>28115000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>27605000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>26444000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>26058000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>25546000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>25049000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>24543000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>24661000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>24213000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>23687000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>23204000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>22655000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>22143000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>21615000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>21127000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>20631000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>20142000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>19809000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>19428000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>19131000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>18677000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>18234000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>20721000000</v>
+      </c>
+      <c r="C24">
         <v>20638000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>20632000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>19837000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>19619000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>19276000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>19181000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>18585000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>17893000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>17805000000</v>
-      </c>
-      <c r="K24">
-        <v>17809000000</v>
       </c>
       <c r="L24">
         <v>17809000000</v>
       </c>
       <c r="M24">
+        <v>17809000000</v>
+      </c>
+      <c r="N24">
         <v>17358000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>17346000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>17379000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>17283000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>17244000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>15971000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>15910000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>15742000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>15543000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>15166000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>14950000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>14448000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>14156000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>13724000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>13491000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>13386000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>12392000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>11915000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>10914000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>9949000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>9396000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>9233000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>8816000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>7723000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>6450000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>6500000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>6557000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>6201000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>18568000000</v>
+      </c>
+      <c r="C25">
         <v>17651000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>17381000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>18014000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>17641000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>15721000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>15321000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>15340000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>15661000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>14716000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>13890000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>13200000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>13978000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>13513000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>12877000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12234000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>11732000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>12755000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11994000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>11774000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>11435000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>11564000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>10952000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>10583000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>10301000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>11317000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>10995000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>10582000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>10738000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>10734000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>11276000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>11520000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>11829000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>13010000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>13119000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>13690000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>14501000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>12605000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>11756000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>11582000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>18568000000</v>
+      </c>
+      <c r="C26">
         <v>17651000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>17381000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>18014000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>17641000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>15721000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>15321000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>15340000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>15661000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>14716000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>13890000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>13200000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>13978000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>13513000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>12877000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>12234000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>11732000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>12755000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>11994000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>11774000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>11435000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>11564000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>10952000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>10583000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>10301000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>11317000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>10995000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>10582000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>10738000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>10734000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>11276000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>11520000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>11829000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>13010000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>13119000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>13690000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>14501000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>12605000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>11756000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>11582000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>51585000000</v>
+      </c>
+      <c r="C27">
         <v>51116000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>50481000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>50876000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>50073000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>51370000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>51183000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>49963000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>51308000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>50258000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>50222000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>53710000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>49349000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>48788000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>48074000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>47466000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>45408000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>46963000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>47152000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>37219000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>35046000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>34914000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>33793000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>33211000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>33172000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>32668000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>31769000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>31702000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>31997000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>32980000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>33654000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>34385000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>35337000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>35311000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>34332000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>34382000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>35494000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>35471000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>34731000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>34609000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>274411000</v>
+      </c>
+      <c r="C28">
         <v>274549000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>274246000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>277705000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>277621000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>279223000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>279541000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>282598000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>286478000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>286972000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>286930000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>286865000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>289610000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>289306000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>288844000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>288872000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>288698000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>296150000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>296281000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>297033000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>296896000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>298583000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>299462000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>301685000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>302419000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>304520000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>305279000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>305647000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>312987000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>316128000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>322727000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>328733000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>332164000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>331390000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>334316000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>342861000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>353403000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>352198000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>349868000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>353187000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-3590000000</v>
+      </c>
+      <c r="C29">
         <v>-4425000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-4488000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-4026000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-4435000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-6393000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-6703000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-6675000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-6509000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-7335000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-8025000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-8712000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-8014000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-8480000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-9242000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-9952000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-10447000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-9398000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-10482000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-883000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-1181000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-1069000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-1412000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-1628000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-1822000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-979000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-1310000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-1772000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-1468000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-1599000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-1209000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-1072000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-814000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>325000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>209000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>560000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1525000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-651000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-1423000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-1662000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>9254000000</v>
+      </c>
+      <c r="C30">
         <v>8995000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>9272000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>8589000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>9892000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>10529000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>11356000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>11370000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>10174000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>11903000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>12291000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>12668000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>11028000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>12676000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>13233000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>12875000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>11454000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>12071000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>12416000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>2147000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>999000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>2160000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>2122000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1721000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1554000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1583000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1537000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1493000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>614000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>41000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-619000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-1001000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-495000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-1194000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>69000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-385000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-1392000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-157000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>150000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>164000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>10496000000</v>
+      </c>
+      <c r="C31">
         <v>11491000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>11495000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>11496000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>11495000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13668000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>14306000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13181000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>12998000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>13372000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>14591000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>17998000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>11930000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>13650000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>13935000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>13548000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>12417000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>13081000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>14278000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>6479000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>3982000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>4882000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3978000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3889000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3888000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3886000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>3436000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>3400000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>3399000000</v>
-      </c>
-      <c r="AD31">
-        <v>3413000000</v>
       </c>
       <c r="AE31">
         <v>3413000000</v>
       </c>
       <c r="AF31">
+        <v>3413000000</v>
+      </c>
+      <c r="AG31">
         <v>3411000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>3893000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>3911000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>3910000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>3911000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>3909000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>3908000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>3907000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>3909000000</v>
       </c>
     </row>
